--- a/Provvigioni_Agenti/bin/Debug/trasferiti/2025/m_04/barcella/Barcella_ Aprile25.xlsx
+++ b/Provvigioni_Agenti/bin/Debug/trasferiti/2025/m_04/barcella/Barcella_ Aprile25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peppe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.40.250\appoggio\FT_AGENTI_TRIM_2025_LAG\trasferiti 2025\aprile_25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1161C408-1D7E-4AD8-A937-D436A4E8F9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4CEC316-9BC0-49CD-AB46-771B68762E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{58B965E0-16EA-489D-BEDE-417C837035A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{58B965E0-16EA-489D-BEDE-417C837035A7}"/>
   </bookViews>
   <sheets>
     <sheet name="barcella_2025_04_F" sheetId="1" r:id="rId1"/>
@@ -1065,22 +1065,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C488F00-13BF-46B1-ADC2-A15947698D84}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
